--- a/database-design/Database-design.xlsx
+++ b/database-design/Database-design.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnguyen292\personal-project\sushi-restaurant\Document\database-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnguyen292\Personal-project\Sushi-restaurant\sushi-website-document\database-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF768D-F19D-406A-A4FB-156FF85CD4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F87278-BAB9-4675-B843-4C98B3697E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D06E3FD8-93AC-4570-A550-505FF14C8E88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D06E3FD8-93AC-4570-A550-505FF14C8E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Booking Form" sheetId="1" r:id="rId1"/>
     <sheet name="Branch" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
   <si>
     <t>Booking_Form</t>
   </si>
@@ -187,6 +188,18 @@
   </si>
   <si>
     <t>RESERVATION_DATE</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>_ROLE</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -586,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42AD318-76A1-4464-9B3F-96A3A49D1C93}">
   <dimension ref="A2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -990,7 +1003,7 @@
   <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,4 +1276,284 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A38998-A8C5-430D-B741-DEDE4EBA75EE}">
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>255</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>